--- a/Resources/IV-22_V2_BOM.xlsx
+++ b/Resources/IV-22_V2_BOM.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="BOM_VFD_CLOCK_IV22_2021-03-11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -458,6 +458,36 @@
   </si>
   <si>
     <t>C145795</t>
+  </si>
+  <si>
+    <t>HDR-F-2.54_1x8</t>
+  </si>
+  <si>
+    <t>HDR-F-2.54_1X8</t>
+  </si>
+  <si>
+    <t>C225505</t>
+  </si>
+  <si>
+    <t>HDR-F-2.54_1x16</t>
+  </si>
+  <si>
+    <t>HDR-F-2.54_1X16</t>
+  </si>
+  <si>
+    <t>C66987</t>
+  </si>
+  <si>
+    <t>HDR-M-2.54_1x8</t>
+  </si>
+  <si>
+    <t>HDR-M-2.54_1x16</t>
+  </si>
+  <si>
+    <t>H1B,H2B</t>
+  </si>
+  <si>
+    <t>H3B,H4B</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2209,6 +2239,74 @@
         <v>147</v>
       </c>
     </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
